--- a/受控文档/05-需求分析/需求优先级/优先级打分（终）/管理员优先级.xlsx
+++ b/受控文档/05-需求分析/需求优先级/优先级打分（终）/管理员优先级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,179 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>相对收益</t>
+  </si>
+  <si>
+    <t>相对损失</t>
+  </si>
+  <si>
+    <t>总价值</t>
+  </si>
+  <si>
+    <t>价值%</t>
+  </si>
+  <si>
+    <t>相对费用</t>
+  </si>
+  <si>
+    <t>费用%</t>
+  </si>
+  <si>
+    <t>相对风险</t>
+  </si>
+  <si>
+    <t>风险%</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>普通用户管理</t>
+  </si>
+  <si>
+    <t>查询普通用户</t>
+  </si>
+  <si>
+    <t>编辑普通用户</t>
+  </si>
+  <si>
+    <t>删除普通用户</t>
+  </si>
+  <si>
+    <t>批量删除普通用户</t>
+  </si>
+  <si>
+    <t>认证用户管理</t>
+  </si>
+  <si>
+    <t>查询认证用户</t>
+  </si>
+  <si>
+    <t>编辑认证用户</t>
+  </si>
+  <si>
+    <t>删除认证用户</t>
+  </si>
+  <si>
+    <t>批量删除认证用户</t>
+  </si>
+  <si>
+    <t>认证用户审核</t>
+  </si>
+  <si>
+    <t>查看认证信息</t>
+  </si>
+  <si>
+    <t>审核认证用户</t>
+  </si>
+  <si>
+    <t>文章管理</t>
+  </si>
+  <si>
+    <t>查询文章</t>
+  </si>
+  <si>
+    <t>置顶文章</t>
+  </si>
+  <si>
+    <t>删除文章</t>
+  </si>
+  <si>
+    <t>板块管理</t>
+  </si>
+  <si>
+    <t>查询板块</t>
+  </si>
+  <si>
+    <t>编辑板块</t>
+  </si>
+  <si>
+    <t>隐藏板块</t>
+  </si>
+  <si>
+    <t>查询课程</t>
+  </si>
+  <si>
+    <t>编辑课程</t>
+  </si>
+  <si>
+    <t>隐藏课程</t>
+  </si>
+  <si>
+    <t>轮播图管理</t>
+  </si>
+  <si>
+    <t>添加轮播图</t>
+  </si>
+  <si>
+    <t>删除轮播图</t>
+  </si>
+  <si>
+    <t>友情链接管理</t>
+  </si>
+  <si>
+    <t>查询友情链接</t>
+  </si>
+  <si>
+    <t>编辑友情链接</t>
+  </si>
+  <si>
+    <t>删除友情链接</t>
+  </si>
+  <si>
+    <t>添加友情链接</t>
+  </si>
+  <si>
+    <t>系统通知管理</t>
+  </si>
+  <si>
+    <t>查询系统通知</t>
+  </si>
+  <si>
+    <t>编辑系统通知</t>
+  </si>
+  <si>
+    <t>删除系统通知</t>
+  </si>
+  <si>
+    <t>添加系统通知</t>
+  </si>
+  <si>
+    <t>日志管理</t>
+  </si>
+  <si>
+    <t>查询日志</t>
+  </si>
+  <si>
+    <t>导出日志</t>
+  </si>
+  <si>
+    <t>举报管理</t>
+  </si>
+  <si>
+    <t>查询举报内容</t>
+  </si>
+  <si>
+    <t>通过举报内容</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +198,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,18 +242,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +346,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +391,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +426,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +608,1819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="11" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <f>SUM(C2:D2)</f>
+        <v>17</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2/SUM(E:E)</f>
+        <v>2.7243589743589744E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4</v>
+      </c>
+      <c r="H2" s="9">
+        <f>G2/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9">
+        <f>I2/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K2" s="10">
+        <f>F2/(H2+J2)</f>
+        <v>0.86613247863247855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <f>SUM(C3:D3)</f>
+        <v>16</v>
+      </c>
+      <c r="F3" s="9">
+        <f>E3/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <f>G3/SUM(G:G)</f>
+        <v>1.2396694214876033E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9">
+        <f>I3/SUM(I:I)</f>
+        <v>1.8656716417910446E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <f>F3/(H3+J3)</f>
+        <v>0.8257072288849846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <f>SUM(C4:D4)</f>
+        <v>16</v>
+      </c>
+      <c r="F4" s="9">
+        <f>E4/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
+        <f>G4/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4</v>
+      </c>
+      <c r="J4" s="9">
+        <f>I4/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K4" s="10">
+        <f>F4/(H4+J4)</f>
+        <v>0.81518350930115624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <f>SUM(C5:D5)</f>
+        <v>16</v>
+      </c>
+      <c r="F5" s="9">
+        <f>E5/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9">
+        <f>G5/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="9">
+        <f>I5/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K5" s="10">
+        <f>F5/(H5+J5)</f>
+        <v>0.81518350930115624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <f>SUM(C6:D6)</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="9">
+        <f>E6/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <f>G6/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="9">
+        <f>I6/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K6" s="10">
+        <f>F6/(H6+J6)</f>
+        <v>0.81518350930115624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <f>SUM(C7:D7)</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="9">
+        <f>E7/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9">
+        <f>G7/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4</v>
+      </c>
+      <c r="J7" s="9">
+        <f>I7/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K7" s="10">
+        <f>F7/(H7+J7)</f>
+        <v>0.81518350930115624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <f>SUM(C8:D8)</f>
+        <v>15</v>
+      </c>
+      <c r="F8" s="9">
+        <f>E8/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="9">
+        <f>G8/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="9">
+        <f>I8/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <f>F8/(H8+J8)</f>
+        <v>0.76423453996983404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
+        <f>SUM(C9:D9)</f>
+        <v>15</v>
+      </c>
+      <c r="F9" s="9">
+        <f>E9/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9">
+        <f>G9/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9">
+        <f>I9/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K9" s="10">
+        <f>F9/(H9+J9)</f>
+        <v>0.76423453996983404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
+        <f>SUM(C10:D10)</f>
+        <v>15</v>
+      </c>
+      <c r="F10" s="9">
+        <f>E10/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="9">
+        <f>G10/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="9">
+        <f>I10/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K10" s="10">
+        <f>F10/(H10+J10)</f>
+        <v>0.76423453996983404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <f>SUM(C11:D11)</f>
+        <v>14</v>
+      </c>
+      <c r="F11" s="9">
+        <f>E11/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
+        <f>G11/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4</v>
+      </c>
+      <c r="J11" s="9">
+        <f>I11/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K11" s="10">
+        <f>F11/(H11+J11)</f>
+        <v>0.71328557063851172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(C12:D12)</f>
+        <v>13</v>
+      </c>
+      <c r="F12" s="9">
+        <f>E12/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9">
+        <f>G12/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="9">
+        <f>I12/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K12" s="10">
+        <f>F12/(H12+J12)</f>
+        <v>0.66233660130718952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <f>SUM(C13:D13)</f>
+        <v>15</v>
+      </c>
+      <c r="F13" s="9">
+        <f>E13/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9">
+        <f>G13/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9">
+        <f>I13/SUM(I:I)</f>
+        <v>1.8656716417910446E-2</v>
+      </c>
+      <c r="K13" s="10">
+        <f>F13/(H13+J13)</f>
+        <v>0.61138763197586732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
+        <f>SUM(C14:D14)</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="9">
+        <f>E14/SUM(E:E)</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14" s="9">
+        <f>G14/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9">
+        <f>I14/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K14" s="10">
+        <f>F14/(H14+J14)</f>
+        <v>0.61138763197586732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
+        <f>SUM(C15:D15)</f>
+        <v>16</v>
+      </c>
+      <c r="F15" s="9">
+        <f>E15/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9">
+        <f>G15/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>6</v>
+      </c>
+      <c r="J15" s="9">
+        <f>I15/SUM(I:I)</f>
+        <v>2.2388059701492536E-2</v>
+      </c>
+      <c r="K15" s="10">
+        <f>F15/(H15+J15)</f>
+        <v>0.59562118874439796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <f>SUM(C16:D16)</f>
+        <v>17</v>
+      </c>
+      <c r="F16" s="9">
+        <f>E16/SUM(E:E)</f>
+        <v>2.7243589743589744E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9">
+        <f>G16/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>7</v>
+      </c>
+      <c r="J16" s="9">
+        <f>I16/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K16" s="10">
+        <f>F16/(H16+J16)</f>
+        <v>0.58236989334550315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <f>SUM(C17:D17)</f>
+        <v>11</v>
+      </c>
+      <c r="F17" s="9">
+        <f>E17/SUM(E:E)</f>
+        <v>1.7628205128205128E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9">
+        <f>G17/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>4</v>
+      </c>
+      <c r="J17" s="9">
+        <f>I17/SUM(I:I)</f>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="K17" s="10">
+        <f>F17/(H17+J17)</f>
+        <v>0.560438662644545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5">
+        <f>SUM(C18:D18)</f>
+        <v>15</v>
+      </c>
+      <c r="F18" s="9">
+        <f>E18/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9">
+        <f>G18/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>6</v>
+      </c>
+      <c r="J18" s="9">
+        <f>I18/SUM(I:I)</f>
+        <v>2.2388059701492536E-2</v>
+      </c>
+      <c r="K18" s="10">
+        <f>F18/(H18+J18)</f>
+        <v>0.55839486444787312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5">
+        <f>SUM(C19:D19)</f>
+        <v>13</v>
+      </c>
+      <c r="F19" s="9">
+        <f>E19/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <f>G19/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9">
+        <f>I19/SUM(I:I)</f>
+        <v>1.8656716417910446E-2</v>
+      </c>
+      <c r="K19" s="10">
+        <f>F19/(H19+J19)</f>
+        <v>0.52986928104575159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5">
+        <f>SUM(C20:D20)</f>
+        <v>15</v>
+      </c>
+      <c r="F20" s="9">
+        <f>E20/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9">
+        <f>G20/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>7</v>
+      </c>
+      <c r="J20" s="9">
+        <f>I20/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K20" s="10">
+        <f>F20/(H20+J20)</f>
+        <v>0.51385578824603217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5">
+        <f>SUM(C21:D21)</f>
+        <v>16</v>
+      </c>
+      <c r="F21" s="9">
+        <f>E21/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7</v>
+      </c>
+      <c r="H21" s="9">
+        <f>G21/SUM(G:G)</f>
+        <v>2.8925619834710745E-2</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6</v>
+      </c>
+      <c r="J21" s="9">
+        <f>I21/SUM(I:I)</f>
+        <v>2.2388059701492536E-2</v>
+      </c>
+      <c r="K21" s="10">
+        <f>F21/(H21+J21)</f>
+        <v>0.49969181459566075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5">
+        <f>SUM(C22:D22)</f>
+        <v>13</v>
+      </c>
+      <c r="F22" s="9">
+        <f>E22/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4</v>
+      </c>
+      <c r="H22" s="9">
+        <f>G22/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7</v>
+      </c>
+      <c r="J22" s="9">
+        <f>I22/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K22" s="10">
+        <f>F22/(H22+J22)</f>
+        <v>0.48849120269944563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>37</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5">
+        <f>SUM(C23:D23)</f>
+        <v>14</v>
+      </c>
+      <c r="F23" s="9">
+        <f>E23/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4</v>
+      </c>
+      <c r="H23" s="9">
+        <f>G23/SUM(G:G)</f>
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="J23" s="9">
+        <f>I23/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K23" s="10">
+        <f>F23/(H23+J23)</f>
+        <v>0.4837442034915439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5">
+        <f>SUM(C24:D24)</f>
+        <v>14</v>
+      </c>
+      <c r="F24" s="9">
+        <f>E24/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6</v>
+      </c>
+      <c r="H24" s="9">
+        <f>G24/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I24" s="5">
+        <v>6</v>
+      </c>
+      <c r="J24" s="9">
+        <f>I24/SUM(I:I)</f>
+        <v>2.2388059701492536E-2</v>
+      </c>
+      <c r="K24" s="10">
+        <f>F24/(H24+J24)</f>
+        <v>0.47552371375900793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5">
+        <f>SUM(C25:D25)</f>
+        <v>15</v>
+      </c>
+      <c r="F25" s="9">
+        <f>E25/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>6</v>
+      </c>
+      <c r="H25" s="9">
+        <f>G25/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I25" s="5">
+        <v>7</v>
+      </c>
+      <c r="J25" s="9">
+        <f>I25/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K25" s="10">
+        <f>F25/(H25+J25)</f>
+        <v>0.47214974607464011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>42</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="7">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5">
+        <f>SUM(C26:D26)</f>
+        <v>14</v>
+      </c>
+      <c r="F26" s="9">
+        <f>E26/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7</v>
+      </c>
+      <c r="H26" s="9">
+        <f>G26/SUM(G:G)</f>
+        <v>2.8925619834710745E-2</v>
+      </c>
+      <c r="I26" s="5">
+        <v>5</v>
+      </c>
+      <c r="J26" s="9">
+        <f>I26/SUM(I:I)</f>
+        <v>1.8656716417910446E-2</v>
+      </c>
+      <c r="K26" s="10">
+        <f>F26/(H26+J26)</f>
+        <v>0.47151735712980042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>6</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="7">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5">
+        <f>SUM(C27:D27)</f>
+        <v>16</v>
+      </c>
+      <c r="F27" s="9">
+        <f>E27/SUM(E:E)</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8</v>
+      </c>
+      <c r="H27" s="9">
+        <f>G27/SUM(G:G)</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>6</v>
+      </c>
+      <c r="J27" s="9">
+        <f>I27/SUM(I:I)</f>
+        <v>2.2388059701492536E-2</v>
+      </c>
+      <c r="K27" s="10">
+        <f>F27/(H27+J27)</f>
+        <v>0.46245115655571717</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>39</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5">
+        <f>SUM(C28:D28)</f>
+        <v>17</v>
+      </c>
+      <c r="F28" s="9">
+        <f>E28/SUM(E:E)</f>
+        <v>2.7243589743589744E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>8</v>
+      </c>
+      <c r="H28" s="9">
+        <f>G28/SUM(G:G)</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>7</v>
+      </c>
+      <c r="J28" s="9">
+        <f>I28/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K28" s="10">
+        <f>F28/(H28+J28)</f>
+        <v>0.46037265669886829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
+        <f>SUM(C29:D29)</f>
+        <v>11</v>
+      </c>
+      <c r="F29" s="9">
+        <f>E29/SUM(E:E)</f>
+        <v>1.7628205128205128E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9">
+        <f>G29/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9">
+        <f>I29/SUM(I:I)</f>
+        <v>1.8656716417910446E-2</v>
+      </c>
+      <c r="K29" s="10">
+        <f>F29/(H29+J29)</f>
+        <v>0.44835093011563598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>9</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7</v>
+      </c>
+      <c r="E30" s="5">
+        <f>SUM(C30:D30)</f>
+        <v>14</v>
+      </c>
+      <c r="F30" s="9">
+        <f>E30/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5</v>
+      </c>
+      <c r="H30" s="9">
+        <f>G30/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>8</v>
+      </c>
+      <c r="J30" s="9">
+        <f>I30/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K30" s="10">
+        <f>F30/(H30+J30)</f>
+        <v>0.44417050186280954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5">
+        <f>SUM(C31:D31)</f>
+        <v>14</v>
+      </c>
+      <c r="F31" s="9">
+        <f>E31/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>6</v>
+      </c>
+      <c r="H31" s="9">
+        <f>G31/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>7</v>
+      </c>
+      <c r="J31" s="9">
+        <f>I31/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K31" s="10">
+        <f>F31/(H31+J31)</f>
+        <v>0.44067309633633073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>10</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5">
+        <f>SUM(C32:D32)</f>
+        <v>14</v>
+      </c>
+      <c r="F32" s="9">
+        <f>E32/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>6</v>
+      </c>
+      <c r="H32" s="9">
+        <f>G32/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>8</v>
+      </c>
+      <c r="J32" s="9">
+        <f>I32/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K32" s="10">
+        <f>F32/(H32+J32)</f>
+        <v>0.41058198761359027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7</v>
+      </c>
+      <c r="E33" s="5">
+        <f>SUM(C33:D33)</f>
+        <v>13</v>
+      </c>
+      <c r="F33" s="9">
+        <f>E33/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>6</v>
+      </c>
+      <c r="H33" s="9">
+        <f>G33/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I33" s="5">
+        <v>7</v>
+      </c>
+      <c r="J33" s="9">
+        <f>I33/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K33" s="10">
+        <f>F33/(H33+J33)</f>
+        <v>0.4091964465980214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>11</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="7">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5">
+        <f>SUM(C34:D34)</f>
+        <v>15</v>
+      </c>
+      <c r="F34" s="9">
+        <f>E34/SUM(E:E)</f>
+        <v>2.403846153846154E-2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>8</v>
+      </c>
+      <c r="H34" s="9">
+        <f>G34/SUM(G:G)</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="I34" s="5">
+        <v>8</v>
+      </c>
+      <c r="J34" s="9">
+        <f>I34/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K34" s="10">
+        <f>F34/(H34+J34)</f>
+        <v>0.38211726998491702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="7">
+        <v>7</v>
+      </c>
+      <c r="D35" s="7">
+        <v>7</v>
+      </c>
+      <c r="E35" s="5">
+        <f>SUM(C35:D35)</f>
+        <v>14</v>
+      </c>
+      <c r="F35" s="9">
+        <f>E35/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>7</v>
+      </c>
+      <c r="H35" s="9">
+        <f>G35/SUM(G:G)</f>
+        <v>2.8925619834710745E-2</v>
+      </c>
+      <c r="I35" s="5">
+        <v>8</v>
+      </c>
+      <c r="J35" s="9">
+        <f>I35/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K35" s="10">
+        <f>F35/(H35+J35)</f>
+        <v>0.38171630747706298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>24</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7">
+        <v>7</v>
+      </c>
+      <c r="E36" s="5">
+        <f>SUM(C36:D36)</f>
+        <v>13</v>
+      </c>
+      <c r="F36" s="9">
+        <f>E36/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G36" s="5">
+        <v>6</v>
+      </c>
+      <c r="H36" s="9">
+        <f>G36/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I36" s="5">
+        <v>8</v>
+      </c>
+      <c r="J36" s="9">
+        <f>I36/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K36" s="10">
+        <f>F36/(H36+J36)</f>
+        <v>0.38125470278404811</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>21</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="7">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5">
+        <f>SUM(C37:D37)</f>
+        <v>13</v>
+      </c>
+      <c r="F37" s="9">
+        <f>E37/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7</v>
+      </c>
+      <c r="H37" s="9">
+        <f>G37/SUM(G:G)</f>
+        <v>2.8925619834710745E-2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>7</v>
+      </c>
+      <c r="J37" s="9">
+        <f>I37/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K37" s="10">
+        <f>F37/(H37+J37)</f>
+        <v>0.37847805788982258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="7">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7">
+        <v>7</v>
+      </c>
+      <c r="E38" s="5">
+        <f>SUM(C38:D38)</f>
+        <v>13</v>
+      </c>
+      <c r="F38" s="9">
+        <f>E38/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G38" s="5">
+        <v>7</v>
+      </c>
+      <c r="H38" s="9">
+        <f>G38/SUM(G:G)</f>
+        <v>2.8925619834710745E-2</v>
+      </c>
+      <c r="I38" s="5">
+        <v>7</v>
+      </c>
+      <c r="J38" s="9">
+        <f>I38/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K38" s="10">
+        <f>F38/(H38+J38)</f>
+        <v>0.37847805788982258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>28</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
+        <f>SUM(C39:D39)</f>
+        <v>11</v>
+      </c>
+      <c r="F39" s="9">
+        <f>E39/SUM(E:E)</f>
+        <v>1.7628205128205128E-2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>5</v>
+      </c>
+      <c r="H39" s="9">
+        <f>G39/SUM(G:G)</f>
+        <v>2.0661157024793389E-2</v>
+      </c>
+      <c r="I39" s="5">
+        <v>7</v>
+      </c>
+      <c r="J39" s="9">
+        <f>I39/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K39" s="10">
+        <f>F39/(H39+J39)</f>
+        <v>0.37682757804709022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5">
+        <f>SUM(C40:D40)</f>
+        <v>14</v>
+      </c>
+      <c r="F40" s="9">
+        <f>E40/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G40" s="5">
+        <v>8</v>
+      </c>
+      <c r="H40" s="9">
+        <f>G40/SUM(G:G)</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="I40" s="5">
+        <v>8</v>
+      </c>
+      <c r="J40" s="9">
+        <f>I40/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K40" s="10">
+        <f>F40/(H40+J40)</f>
+        <v>0.35664278531925586</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>41</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="7">
+        <v>7</v>
+      </c>
+      <c r="D41" s="7">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5">
+        <f>SUM(C41:D41)</f>
+        <v>14</v>
+      </c>
+      <c r="F41" s="9">
+        <f>E41/SUM(E:E)</f>
+        <v>2.2435897435897436E-2</v>
+      </c>
+      <c r="G41" s="5">
+        <v>8</v>
+      </c>
+      <c r="H41" s="9">
+        <f>G41/SUM(G:G)</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="I41" s="5">
+        <v>8</v>
+      </c>
+      <c r="J41" s="9">
+        <f>I41/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K41" s="10">
+        <f>F41/(H41+J41)</f>
+        <v>0.35664278531925586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="7">
+        <v>6</v>
+      </c>
+      <c r="D42" s="7">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5">
+        <f>SUM(C42:D42)</f>
+        <v>13</v>
+      </c>
+      <c r="F42" s="9">
+        <f>E42/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G42" s="5">
+        <v>7</v>
+      </c>
+      <c r="H42" s="9">
+        <f>G42/SUM(G:G)</f>
+        <v>2.8925619834710745E-2</v>
+      </c>
+      <c r="I42" s="5">
+        <v>8</v>
+      </c>
+      <c r="J42" s="9">
+        <f>I42/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K42" s="10">
+        <f>F42/(H42+J42)</f>
+        <v>0.354450856942987</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>8</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="7">
+        <v>6</v>
+      </c>
+      <c r="D43" s="7">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5">
+        <f>SUM(C43:D43)</f>
+        <v>12</v>
+      </c>
+      <c r="F43" s="9">
+        <f>E43/SUM(E:E)</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>6</v>
+      </c>
+      <c r="H43" s="9">
+        <f>G43/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I43" s="5">
+        <v>8</v>
+      </c>
+      <c r="J43" s="9">
+        <f>I43/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K43" s="10">
+        <f>F43/(H43+J43)</f>
+        <v>0.35192741795450599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>5</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="7">
+        <v>5</v>
+      </c>
+      <c r="D44" s="7">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5">
+        <f>SUM(C44:D44)</f>
+        <v>11</v>
+      </c>
+      <c r="F44" s="9">
+        <f>E44/SUM(E:E)</f>
+        <v>1.7628205128205128E-2</v>
+      </c>
+      <c r="G44" s="5">
+        <v>6</v>
+      </c>
+      <c r="H44" s="9">
+        <f>G44/SUM(G:G)</f>
+        <v>2.4793388429752067E-2</v>
+      </c>
+      <c r="I44" s="5">
+        <v>7</v>
+      </c>
+      <c r="J44" s="9">
+        <f>I44/SUM(I:I)</f>
+        <v>2.6119402985074626E-2</v>
+      </c>
+      <c r="K44" s="10">
+        <f>F44/(H44+J44)</f>
+        <v>0.34624314712140269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>14</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="7">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7">
+        <v>7</v>
+      </c>
+      <c r="E45" s="5">
+        <f>SUM(C45:D45)</f>
+        <v>13</v>
+      </c>
+      <c r="F45" s="9">
+        <f>E45/SUM(E:E)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>8</v>
+      </c>
+      <c r="H45" s="9">
+        <f>G45/SUM(G:G)</f>
+        <v>3.3057851239669422E-2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>8</v>
+      </c>
+      <c r="J45" s="9">
+        <f>I45/SUM(I:I)</f>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="K45" s="10">
+        <f>F45/(H45+J45)</f>
+        <v>0.33116830065359476</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:K45">
+    <sortCondition descending="1" ref="K1"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>